--- a/Tabela/Copacabana/Copacabana-3.xlsx
+++ b/Tabela/Copacabana/Copacabana-3.xlsx
@@ -14,366 +14,333 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="109">
+  <si>
+    <t>mais</t>
+  </si>
   <si>
     <t>Mensagem</t>
   </si>
   <si>
-    <t>O You Botafogo traz tudo o que você e sua família procuram. Ampla área de lazer, localização...</t>
+    <t>Rua Fernandes Guimarães, Botafogo</t>
   </si>
   <si>
     <t>super destaque</t>
   </si>
   <si>
-    <t>R$ 300.000</t>
-  </si>
-  <si>
     <t>destaque</t>
   </si>
   <si>
-    <t>R$ 30.000</t>
-  </si>
-  <si>
-    <t>R$ 889.999</t>
-  </si>
-  <si>
-    <t>R$ 1.390.000</t>
+    <t>R$ 890.000</t>
+  </si>
+  <si>
+    <t>R$ 770.000</t>
+  </si>
+  <si>
+    <t>R$ 1.299.995</t>
+  </si>
+  <si>
+    <t>R$ 2.000.000</t>
+  </si>
+  <si>
+    <t>R$ 295.000</t>
   </si>
   <si>
     <t>R$ 840.000</t>
   </si>
   <si>
-    <t>mais</t>
-  </si>
-  <si>
-    <t>R$ 4.000.000</t>
-  </si>
-  <si>
-    <t>R$ 6.200.000</t>
-  </si>
-  <si>
-    <t>R$ 980.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 750 IPTU R$ 250</t>
-  </si>
-  <si>
-    <t>R$ 698.000</t>
-  </si>
-  <si>
-    <t>R$ 280.000</t>
-  </si>
-  <si>
-    <t>R$ 699.500</t>
-  </si>
-  <si>
-    <t>R$ 1.600.000</t>
-  </si>
-  <si>
-    <t>R$ 490.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 333 IPTU R$ 120</t>
-  </si>
-  <si>
-    <t>R$ 465.000</t>
-  </si>
-  <si>
-    <t>R$ 1.049.000</t>
-  </si>
-  <si>
-    <t>R$ 3.800.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 700</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.262 IPTU R$ 4.234</t>
-  </si>
-  <si>
-    <t>R$ 1.430.000</t>
-  </si>
-  <si>
-    <t>R$ 795.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 610 IPTU R$ 1.500</t>
-  </si>
-  <si>
-    <t>R$ 4.800.000</t>
-  </si>
-  <si>
-    <t>R$ 530.000</t>
-  </si>
-  <si>
-    <t>R$ 525.000</t>
-  </si>
-  <si>
-    <t>Rua Real Grandeza, Botafogo</t>
-  </si>
-  <si>
-    <t>condomínio R$ 2.400 IPTU R$ 6.480</t>
-  </si>
-  <si>
-    <t>condomínio R$ 4.290 IPTU R$ 21.269</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.100 IPTU R$ 2.500</t>
-  </si>
-  <si>
-    <t>excepcional sala com ante-sala, com 1 banheiro,esquina de av. Copacabana, toda de frente.</t>
-  </si>
-  <si>
-    <t>condomínio R$ 850 IPTU R$ 2.096</t>
-  </si>
-  <si>
-    <t>condomínio R$ 400 IPTU R$ 1.008</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.090 IPTU R$ 361</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.550 IPTU R$ 540</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.030 IPTU R$ 4.094</t>
-  </si>
-  <si>
-    <t>Box de garagem no Edifico Garagem Laroquim, funcionamento 24 horas.</t>
-  </si>
-  <si>
-    <t>condomínio R$ 450 IPTU R$ 60</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.050 IPTU R$ 2.500</t>
-  </si>
-  <si>
-    <t>condomínio R$ 2.071 IPTU R$ 9.113</t>
-  </si>
-  <si>
-    <t>(22227) “PORTEIRA FECHADA” Para moradia ou investimento para locação por temporada! Excelente apto finamente decorado e com mobília de luxo em prédio familiar, claro, arejado, deso...</t>
-  </si>
-  <si>
-    <t>excelente apartamento, segunda quadra da praia, tem 144 metros quadrados com 2 quartos sendo 1 suite e 2 banheiros social.frente, sol da manha, com dependencia de empregada complet...</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.500 IPTU R$ 460</t>
-  </si>
-  <si>
-    <t>condomínio R$ 980 IPTU R$ 2.603</t>
-  </si>
-  <si>
-    <t>Apartamento à Venda</t>
-  </si>
-  <si>
-    <t>condomínio R$ 2.400</t>
-  </si>
-  <si>
-    <t>condomínio R$ 712 IPTU R$ 1.080</t>
-  </si>
-  <si>
-    <t>condomínio R$ 800 IPTU R$ 1.792</t>
-  </si>
-  <si>
-    <t>66 - 97 m²</t>
-  </si>
-  <si>
-    <t>Próximo à Praça General Osório, metro, vasto comércio, restaurantes, bares, cafeterias, academias e supermercados.</t>
-  </si>
-  <si>
-    <t>Excelente apartamento, de frente para praia, na esquina da Rua Figueiredo Magalhães. Salão em 5 ambientes, sala de jantar, suíte máster de frente para praia, com escritório, banhei...</t>
+    <t>87 - 176 m²</t>
+  </si>
+  <si>
+    <t>R$ 1.790.000</t>
+  </si>
+  <si>
+    <t>R$ 2.400.000</t>
+  </si>
+  <si>
+    <t>R$ 2.700.000</t>
+  </si>
+  <si>
+    <t>R$ 350.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.100 IPTU R$ 3.039</t>
+  </si>
+  <si>
+    <t>condomínioR$ 995 IPTU R$ 2.360</t>
+  </si>
+  <si>
+    <t>R$ 995.000</t>
+  </si>
+  <si>
+    <t>R$ 900.000</t>
+  </si>
+  <si>
+    <t>R$ 529.000</t>
+  </si>
+  <si>
+    <t>R$ 540.000</t>
+  </si>
+  <si>
+    <t>R$ 1.300.000</t>
+  </si>
+  <si>
+    <t>R$ 400.000</t>
+  </si>
+  <si>
+    <t>R$ 425.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 820 IPTU R$ 1.935</t>
+  </si>
+  <si>
+    <t>R$ 440.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.400 IPTU R$ 2.800</t>
+  </si>
+  <si>
+    <t>R$ 1.100.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.500 IPTU R$ 500</t>
+  </si>
+  <si>
+    <t>condomínioR$ 575 IPTU R$ 280</t>
+  </si>
+  <si>
+    <t>condomínioR$ 681 IPTU R$ 261</t>
+  </si>
+  <si>
+    <t>1 - 3</t>
+  </si>
+  <si>
+    <t>condomínioR$ 2.500 IPTU R$ 6.296</t>
+  </si>
+  <si>
+    <t>condomínioR$ 2.200 IPTU R$ 5.422</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.500 IPTU R$ 7.661</t>
+  </si>
+  <si>
+    <t>condomínioR$ 397 IPTU R$ 59</t>
+  </si>
+  <si>
+    <t>Apartamento de 3 dormitórios com 90m2 à venda em Copacabana.</t>
+  </si>
+  <si>
+    <t>Imperdível, todo reformado; Hidráulica e elétrica Nova, Edifício bem Administrado, circuíto interno de Tv, porteiro 24horas, Composto de: Sala, dois ambientes, sendo uma sala, e an...</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.200 IPTU R$ 3.400</t>
+  </si>
+  <si>
+    <t>condomínioR$ 825 IPTU R$ 244</t>
+  </si>
+  <si>
+    <t>condomínioR$ 390 IPTU R$ 111</t>
+  </si>
+  <si>
+    <t>condomínioR$ 492 IPTU R$ 1.033</t>
+  </si>
+  <si>
+    <t>condomínioR$ 797 IPTU R$ 519</t>
+  </si>
+  <si>
+    <t>condomínioR$ 546 IPTU R$ 105</t>
+  </si>
+  <si>
+    <t>condomínioR$ 770 IPTU R$ 356</t>
+  </si>
+  <si>
+    <t>Prédio e imóvel muito bons. Boa sala e 3 quartos (01 suíte com armários). Banheiro social, box com blindex. Cozinha com azulejo ao teto, área de serviço e banheiro de empregada. Pi...</t>
+  </si>
+  <si>
+    <t>condomínioR$ 546 IPTU R$ 3.874</t>
+  </si>
+  <si>
+    <t>ZONA SUL - COPACABANA - Apartamento com 3 quartos com armários (1 suíte), sala ampla, cozinha, área de serviço, banheiro social. Prédio com portaria 24 horas. Ótima localização, no...</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.294</t>
+  </si>
+  <si>
+    <t>TRECHO MAIS VALORIZADO EM COPACABANA. Rua Souza Lima. Posto 5. Privilegiada rua em Copacabana. 3ª. quadra da praia. Farto comércio nas proximidades. Transporte público na porta. 5...</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>Vende-se ótimo apartamento de sala, 2 quartos, 1 banheiro social, ótima cozinha, área de serviço. Vista bonita, frente para rua. No coração de Copacabana. Próximo ao metrô da Carde...</t>
-  </si>
-  <si>
-    <t>Privilégio Imóveis vende: Ótima sala comercial com banheiro, toda reformada em excelente localização. Galeria bastante movimentada e de fácil acesso, no coração de Copacabana. Exce...</t>
-  </si>
-  <si>
-    <t>Sr. Investidor, espere a valorização do imóvel recebendo renda desde o primeiro mês. Está alugado por excelente inquilino. O imóvel possui valor segundo a prefeitura de R$800.000....</t>
-  </si>
-  <si>
-    <t>Excelente apartamento composto por varanda com acesso pela sala e dois quartos, ampla sala, dois quartos sendo uma suíte, um banheiro social, copa cozinha, área de serviço, uma dep...</t>
-  </si>
-  <si>
-    <t>Conjunto comercial, em prédio exclusivamente comercial e de excelente padrão, 60m2 com recepção, 2 salas, 2 banheiros, copa. Com 1 vaga de garagem na escritura. Splits, cortinas e...</t>
-  </si>
-  <si>
-    <t>Excelente oportunidade!</t>
-  </si>
-  <si>
-    <t>Ministro Viveiro de Castro, próximo a praia e todo comércio do bairro, portaria vinte e quatro horas, reforma de arquiteto para investir ou morar ! climatizado, sala, quarto com di...</t>
-  </si>
-  <si>
-    <t>NO MELHOR TRECHO DE COPACABANA, NO POSTO IV , JUNTINHO DO METRÔ, DO MELHOR COMÉRCIO DO BAIRRO E A POUCAS QUADRAS DA PRAIA!!! APARTAMENTO CLARÍSSIMO, INDEVASSADO, COMPOSTO DE SALÃO...</t>
-  </si>
-  <si>
-    <t>Localizado na Orla da Praia, entre os Postos 4 e 5. Junto ao Baixo Copa/Complexo de Bares e Restaurantes, Cinema Roxy, Supermercados, Academias, Galerias com Lojas e Consultórios....</t>
-  </si>
-  <si>
-    <t>MARAVILHOSO APARTAMENTO TRÊS QUARTOS COM SUITE E VARANDA! Apartamento composto por sala ampla com iluminação natural, quartos amplos e arejados com armários embutidos sendo um suít...</t>
-  </si>
-  <si>
-    <t>Exclusividade - apartamento de 3 quartos revertido em 2 quartos - Salão dois ambientes 38m², dois quartos grandes com armários embutidos e dependências completas.</t>
-  </si>
-  <si>
-    <t>Alto luxo! Maravilhoso! Vista deslumbrante para o mar. Apartamento reformado. Três salões, ar condicionado central, quatro quartos sendo duas suítes com Split. A suíte máster tem c...</t>
-  </si>
-  <si>
-    <t>Vende-se ótimo quarto e sala em Copacabana. Frente, ótima sala, cozinha espaçosa com armário, banheiro social com box blindex, área de serviço, prédio muito organizado, portaria 24...</t>
-  </si>
-  <si>
-    <t>Excelente Apartamento, Andar Alto, Sol da Manhã, em Prédio com 04 Unidades por Andar, Claro, Arejado, Composto Por: Dois Amplos Quartos, Sala espaçosa, Banheiro Social, Cozinha, Qu...</t>
+    <t>Magnifico Apartamento, todo reformado, pronto para morar.</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Maravilhoso apartamento, totalmente reformado, tudo novo, de bom gosto, na quadra do Copacabana Palace, próximo do metro da arco verde, portaria com ótima apresentação, porteiro 24...</t>
+  </si>
+  <si>
+    <t>Posto 5, Copacabana! Belíssimo apartamento, recém reformado por arquiteto em excelente acabamento. Sala ampla em dois ambientes, podendo montar 3. Teto rebaixado, iluminação fria,...</t>
+  </si>
+  <si>
+    <t>Atlântica, linda vista frontal mar.</t>
+  </si>
+  <si>
+    <t>Voltei a vender em r agora de R$ 395.000 por R$ 350.000 para fechar negocio direto com proprietário. Melhor mandar mensagem para meu whatsup, vejo pouco emails. Obrigado</t>
+  </si>
+  <si>
+    <t>Localizado próximo da estação de metrô Cantagalo em uma região que oferece tudo que você precisa para viver bem. Es...</t>
+  </si>
+  <si>
+    <t>Apartamento na quadra da Praia.</t>
+  </si>
+  <si>
+    <t>ÓTIMA LOCALIZAÇÃO EXCELENTE APARTAMENTO DE FRENTE C/ SALA,3 QUARTOS ,1 BANHEIRO SOCIAL,LAVABO ,COZINHA , ÁREA DE SERVIÇO , DEPENDÊNCIA COMPLETA E (1 VAGA ) EM FRENTE AO METRÔ.</t>
+  </si>
+  <si>
+    <t>MOBILIADO, Desocupado, reformado, conjugadão transformado em quarto e sala, 46 m², todo em porcelanato 60x60, (elétrica, hidráulica, pintura e gás tudo novo), sala, cozinha com cop...</t>
+  </si>
+  <si>
+    <t>Aconchegante conjugado amplo e reformado situado em Copacabana!!!</t>
+  </si>
+  <si>
+    <t>(Exclusividade Carla) Apartamento com 3 quartos à venda, 150 m² por R$ 1.300.000 - Copacabana - Rio de Janeiro/RJ.</t>
+  </si>
+  <si>
+    <t>EXCELENTE APARTAMENTO PRÓXIMO A RUA INHANGÁ. ÓTIMO QUARTO E SALA SEPARADO COM 45M² DE FRENTE ,ANDAR ALTO,CLARO E AREJADO .</t>
+  </si>
+  <si>
+    <t>(Código: 40518, Avenida Nossa Senhora de Copacabana) - Prédio comercial com excelente localização, próximo a Rua Santa Clara, muito bem administrado com recepção no hall de entrada...</t>
+  </si>
+  <si>
+    <t>Excelente sala comercial em Copacabana, em localização privilegiada, sala ampla com 42 metros, com banheiro e cozinha .*Rio Real Imóveis é especializada em venda, locação, administ...</t>
+  </si>
+  <si>
+    <t>Posto 6 andar alto</t>
+  </si>
+  <si>
+    <t>Rua Barata Ribeiro, Copacabana</t>
+  </si>
+  <si>
+    <t>DIRETO COM O PROPRIETÁRIO E O CORRETOR - SEM OUTROS INTERMEDIÁRIOS - COM MAIOR PODER DE NEGOCIAÇÃO - Mobiliado, Desocupado, reformado, conjugadão transformado em quarto e sala, 46...</t>
+  </si>
+  <si>
+    <t>Composto de Sala ampla, 2 quartos, suíte armários, banheiro, dependência completa.</t>
+  </si>
+  <si>
+    <t>Reformado, planta generosa, ambientes amplos, confortáveis, aconchegantes, claro e arejado.</t>
+  </si>
+  <si>
+    <t>Copacabana, Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>O imóvel é dividido em sala e quarto com armários, banheiro social grande com box blindex, cozinha cabe fogão e...</t>
+  </si>
+  <si>
+    <t>Rua Pompeu Loureiro, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Belfort Roxo, Copacabana</t>
+  </si>
+  <si>
+    <t>Excelente apartamento -lindo! totalmente reformado,hidráulica, elétrica, gás novos. Salão 3 dormitórios sendo 1 suite , excelentes armários ,banheiro social,...</t>
+  </si>
+  <si>
+    <t>Rua Souza Lima, Copacabana</t>
+  </si>
+  <si>
+    <t>32 m²</t>
+  </si>
+  <si>
+    <t>Posto 5 a 2 quadras de do metro C...</t>
+  </si>
+  <si>
+    <t>Avenida Nossa Senhora de Copacabana, Copacabana</t>
+  </si>
+  <si>
+    <t>Excelente localização, prédio estritamente re...</t>
+  </si>
+  <si>
+    <t>Rua Professor Gastão Bahiana, Copacabana</t>
+  </si>
+  <si>
+    <t>60 m²</t>
+  </si>
+  <si>
+    <t>Apartamento andar alto, vista livre,reformado , 3 quartos , uma suíte,sala em dois ambientes, banheiro social, cozinha, área de serviço, depe...</t>
+  </si>
+  <si>
+    <t>Rua Figueiredo Magalhães, Copacabana</t>
+  </si>
+  <si>
+    <t>A Imobiliária WMartins vende ótimo apartamento composto de...</t>
+  </si>
+  <si>
+    <t>83 m²</t>
+  </si>
+  <si>
+    <t>110 m²</t>
+  </si>
+  <si>
+    <t>200 m²</t>
+  </si>
+  <si>
+    <t>233 m²</t>
+  </si>
+  <si>
+    <t>205 m²</t>
+  </si>
+  <si>
+    <t>90 m²</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>Quadríssima da praia, rua transversal nobre, ótimo prédio, por...</t>
-  </si>
-  <si>
-    <t>Rua Professor Gastão Bahiana, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Constante Ramos, Copacabana</t>
-  </si>
-  <si>
-    <t>Avenida Nossa Senhora de Copacabana, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Figueiredo Magalhães, Copacabana</t>
-  </si>
-  <si>
-    <t>Sol da manhã,...</t>
-  </si>
-  <si>
-    <t>Bairro: Copacabana</t>
-  </si>
-  <si>
-    <t>1 - 2</t>
-  </si>
-  <si>
-    <t>Copacabana, Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>100 m²</t>
-  </si>
-  <si>
-    <t>35 m²</t>
-  </si>
-  <si>
-    <t>Rua Inhanga, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Santa Clara, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Pompeu Loureiro, Copacabana</t>
-  </si>
-  <si>
-    <t>Avenida Henrique Dodsworth, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Barata Ribeiro, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Ministro Viveiros de Castro, Copacabana</t>
+    <t>80 m²</t>
+  </si>
+  <si>
+    <t>46 m²</t>
+  </si>
+  <si>
+    <t>Rua Domingos Ferreira, Copacabana</t>
+  </si>
+  <si>
+    <t>45 m²</t>
+  </si>
+  <si>
+    <t>39 m²</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>42 m²</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>Avenida Atlântica, Copacabana</t>
   </si>
   <si>
-    <t>65 m²</t>
-  </si>
-  <si>
-    <t>144 m²</t>
-  </si>
-  <si>
-    <t>Rua Raul Pompéia, Copacabana</t>
-  </si>
-  <si>
-    <t>Quartos: 1 quarto</t>
-  </si>
-  <si>
-    <t>Rua Siqueira Campos, Copacabana</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Avenida Rainha Elizabeth da Bélgica, Copacabana</t>
-  </si>
-  <si>
-    <t>500 m²</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>70 m²</t>
-  </si>
-  <si>
-    <t>20 m²</t>
-  </si>
-  <si>
-    <t>42 m²</t>
-  </si>
-  <si>
-    <t>125 m²</t>
-  </si>
-  <si>
-    <t>60 m²</t>
-  </si>
-  <si>
-    <t>15 m²</t>
-  </si>
-  <si>
-    <t>27 m²</t>
-  </si>
-  <si>
-    <t>120 m²</t>
-  </si>
-  <si>
-    <t>192 m²</t>
-  </si>
-  <si>
-    <t>180 m²</t>
-  </si>
-  <si>
-    <t>Rua República do Peru, Copacabana</t>
-  </si>
-  <si>
-    <t>Vaga de Garagem: 1 vaga</t>
-  </si>
-  <si>
-    <t>300 m²</t>
-  </si>
-  <si>
-    <t>40 m²</t>
-  </si>
-  <si>
-    <t>67 m²</t>
-  </si>
-  <si>
-    <t>200 m²</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>104 m²</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Descrição: Apartamento com 58 m², sol da tarde, ampla sala com 3 ambientes (sal...</t>
-  </si>
-  <si>
-    <t>58 m²</t>
+    <t>Rua Duvivier, Copacabana</t>
+  </si>
+  <si>
+    <t>38 m²</t>
+  </si>
+  <si>
+    <t>Rua Barão de Ipanema, Copacabana</t>
+  </si>
+  <si>
+    <t>84 m²</t>
+  </si>
+  <si>
+    <t>148 m²</t>
+  </si>
+  <si>
+    <t>150 m²</t>
   </si>
 </sst>
 </file>
@@ -731,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:14">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -777,784 +744,751 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-      <c r="O1" s="1">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
         <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="K3" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>95</v>
-      </c>
-      <c r="M3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="K4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
         <v>81</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>107</v>
+      </c>
+      <c r="L5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
         <v>99</v>
       </c>
-      <c r="J7" t="s">
-        <v>71</v>
-      </c>
       <c r="K7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>53</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
       </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>99</v>
+      </c>
+      <c r="M9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
         <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J10" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
         <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J11" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
         <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" t="s">
         <v>104</v>
       </c>
-      <c r="J12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="K12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
         <v>63</v>
       </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
       <c r="H13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
         <v>105</v>
       </c>
-      <c r="J13" t="s">
-        <v>95</v>
-      </c>
       <c r="K13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>108</v>
+      </c>
+      <c r="L13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
         <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="J14" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="K14" t="s">
-        <v>95</v>
-      </c>
-      <c r="L14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
         <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="J15" t="s">
-        <v>98</v>
-      </c>
-      <c r="K15" t="s">
-        <v>95</v>
-      </c>
-      <c r="L15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="J16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s">
-        <v>71</v>
-      </c>
-      <c r="J17" t="s">
-        <v>95</v>
-      </c>
-      <c r="K17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="J18" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18" t="s">
-        <v>95</v>
-      </c>
-      <c r="L18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
         <v>67</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="J19" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="K19" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="L19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>53</v>
+      </c>
+      <c r="M19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" t="s">
         <v>93</v>
       </c>
-      <c r="I20" t="s">
-        <v>110</v>
-      </c>
       <c r="K20" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" t="s">
-        <v>9</v>
-      </c>
-      <c r="M20" t="s">
-        <v>80</v>
-      </c>
-      <c r="N20" t="s">
-        <v>119</v>
-      </c>
-      <c r="O20" t="s">
-        <v>95</v>
-      </c>
-      <c r="P20" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
         <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I21" t="s">
-        <v>111</v>
-      </c>
-      <c r="J21" t="s">
-        <v>117</v>
-      </c>
-      <c r="K21" t="s">
-        <v>95</v>
-      </c>
-      <c r="L21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
         <v>69</v>
       </c>
       <c r="G22" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="J22" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="K22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
         <v>52</v>
@@ -1563,19 +1497,22 @@
         <v>70</v>
       </c>
       <c r="G23" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="J23" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="K23" t="s">
-        <v>71</v>
+        <v>93</v>
+      </c>
+      <c r="L23" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
